--- a/data/2023/fid/FID-AAC-DE-188-144.xlsx
+++ b/data/2023/fid/FID-AAC-DE-188-144.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="199">
   <si>
     <t>ZDBDID</t>
   </si>
@@ -520,6 +520,54 @@
     <t>http://www.genderidentityandsocialchange.amdigital.co.uk/Documents/Details/MSU_HQ1090_T7;https://dbis.uni-regensburg.de/frontdoor.php?titel_id=103323</t>
   </si>
   <si>
+    <t>3146548-1</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>The New York Times and Washington Post Archive</t>
+  </si>
+  <si>
+    <t>ProQuest</t>
+  </si>
+  <si>
+    <t>Ann Arbor, Mi</t>
+  </si>
+  <si>
+    <t>050</t>
+  </si>
+  <si>
+    <t>FID-HIST-DE-12;FID-HIST-DE-210;FID-AAC-DE-7;FID-AAC-DE-188-144</t>
+  </si>
+  <si>
+    <t>https://dbis.uni-regensburg.de/frontdoor.php?titel_id=104557;https://dbis.uni-regensburg.de/frontdoor.php?titel_id=104558</t>
+  </si>
+  <si>
+    <t>3146595-X</t>
+  </si>
+  <si>
+    <t>zt;ld;b</t>
+  </si>
+  <si>
+    <t>New Statesman and Nation</t>
+  </si>
+  <si>
+    <t>Statesman and Nation Publishing</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>FID-AAC-DE-7;FID-AAC-DE-188-144;FID-HIST-DE-12;FID-HIST-DE-210</t>
+  </si>
+  <si>
+    <t>1.1913,12.April-2000,03.Juni</t>
+  </si>
+  <si>
+    <t>http://dbis.uni-regensburg.de/frontdoor.php?titel_id=103190</t>
+  </si>
+  <si>
     <t>2925214-3</t>
   </si>
   <si>
@@ -533,9 +581,6 @@
   </si>
   <si>
     <t>Dublin</t>
-  </si>
-  <si>
-    <t>050</t>
   </si>
   <si>
     <t>FID-AAC-DE-7;FID-AAC-DE-188-144;26</t>
@@ -897,7 +942,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y37"/>
+  <dimension ref="A1:Y39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3651,10 +3696,10 @@
         <v>32</v>
       </c>
       <c r="R36" t="s">
+        <v>32</v>
+      </c>
+      <c r="S36" t="s">
         <v>175</v>
-      </c>
-      <c r="S36" t="s">
-        <v>176</v>
       </c>
       <c r="T36" t="s">
         <v>32</v>
@@ -3677,13 +3722,13 @@
     </row>
     <row r="37" spans="1:25">
       <c r="A37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B37" t="s">
         <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="D37" t="s">
         <v>178</v>
@@ -3704,37 +3749,37 @@
         <v>32</v>
       </c>
       <c r="J37" t="s">
+        <v>173</v>
+      </c>
+      <c r="K37" t="s">
         <v>181</v>
       </c>
-      <c r="K37" t="s">
-        <v>33</v>
-      </c>
       <c r="L37" t="s">
+        <v>32</v>
+      </c>
+      <c r="M37" t="s">
+        <v>32</v>
+      </c>
+      <c r="N37" t="s">
+        <v>32</v>
+      </c>
+      <c r="O37" t="s">
+        <v>32</v>
+      </c>
+      <c r="P37" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>32</v>
+      </c>
+      <c r="R37" t="s">
         <v>182</v>
-      </c>
-      <c r="M37" t="s">
-        <v>32</v>
-      </c>
-      <c r="N37" t="s">
-        <v>32</v>
-      </c>
-      <c r="O37" t="s">
-        <v>32</v>
-      </c>
-      <c r="P37" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>32</v>
-      </c>
-      <c r="R37" t="s">
-        <v>32</v>
       </c>
       <c r="S37" t="s">
         <v>183</v>
       </c>
       <c r="T37" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="U37" t="s">
         <v>32</v>
@@ -3749,6 +3794,160 @@
         <v>37</v>
       </c>
       <c r="Y37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25">
+      <c r="A38" t="s">
+        <v>184</v>
+      </c>
+      <c r="B38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" t="s">
+        <v>185</v>
+      </c>
+      <c r="D38" t="s">
+        <v>186</v>
+      </c>
+      <c r="E38" t="s">
+        <v>187</v>
+      </c>
+      <c r="F38" t="s">
+        <v>188</v>
+      </c>
+      <c r="G38" t="s">
+        <v>31</v>
+      </c>
+      <c r="H38" t="s">
+        <v>32</v>
+      </c>
+      <c r="I38" t="s">
+        <v>32</v>
+      </c>
+      <c r="J38" t="s">
+        <v>173</v>
+      </c>
+      <c r="K38" t="s">
+        <v>189</v>
+      </c>
+      <c r="L38" t="s">
+        <v>32</v>
+      </c>
+      <c r="M38" t="s">
+        <v>32</v>
+      </c>
+      <c r="N38" t="s">
+        <v>32</v>
+      </c>
+      <c r="O38" t="s">
+        <v>32</v>
+      </c>
+      <c r="P38" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>32</v>
+      </c>
+      <c r="R38" t="s">
+        <v>190</v>
+      </c>
+      <c r="S38" t="s">
+        <v>191</v>
+      </c>
+      <c r="T38" t="s">
+        <v>32</v>
+      </c>
+      <c r="U38" t="s">
+        <v>32</v>
+      </c>
+      <c r="V38" t="s">
+        <v>32</v>
+      </c>
+      <c r="W38" t="s">
+        <v>32</v>
+      </c>
+      <c r="X38" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
+      <c r="A39" t="s">
+        <v>192</v>
+      </c>
+      <c r="B39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" t="s">
+        <v>193</v>
+      </c>
+      <c r="E39" t="s">
+        <v>194</v>
+      </c>
+      <c r="F39" t="s">
+        <v>195</v>
+      </c>
+      <c r="G39" t="s">
+        <v>31</v>
+      </c>
+      <c r="H39" t="s">
+        <v>32</v>
+      </c>
+      <c r="I39" t="s">
+        <v>32</v>
+      </c>
+      <c r="J39" t="s">
+        <v>196</v>
+      </c>
+      <c r="K39" t="s">
+        <v>33</v>
+      </c>
+      <c r="L39" t="s">
+        <v>197</v>
+      </c>
+      <c r="M39" t="s">
+        <v>32</v>
+      </c>
+      <c r="N39" t="s">
+        <v>32</v>
+      </c>
+      <c r="O39" t="s">
+        <v>32</v>
+      </c>
+      <c r="P39" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>32</v>
+      </c>
+      <c r="R39" t="s">
+        <v>32</v>
+      </c>
+      <c r="S39" t="s">
+        <v>198</v>
+      </c>
+      <c r="T39" t="s">
+        <v>36</v>
+      </c>
+      <c r="U39" t="s">
+        <v>32</v>
+      </c>
+      <c r="V39" t="s">
+        <v>32</v>
+      </c>
+      <c r="W39" t="s">
+        <v>32</v>
+      </c>
+      <c r="X39" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y39" t="s">
         <v>32</v>
       </c>
     </row>
